--- a/Excel-XLSX/UN-CVI.xlsx
+++ b/Excel-XLSX/UN-CVI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,127 @@
     <t>1</t>
   </si>
   <si>
-    <t>0Fe7Tm</t>
+    <t>diS51V</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>CVI</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>1991</t>
@@ -102,118 +222,7 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>CVI</t>
-  </si>
-  <si>
-    <t>CPV</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>GNB</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2022</t>
+    <t>UNK</t>
   </si>
 </sst>
 </file>
@@ -598,7 +607,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -700,45 +709,45 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -759,54 +768,54 @@
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -821,60 +830,60 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -889,60 +898,60 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="T5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -957,60 +966,60 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1025,60 +1034,60 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1093,60 +1102,60 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1161,60 +1170,60 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1229,60 +1238,60 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1297,60 +1306,60 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1365,61 +1374,61 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1433,60 +1442,128 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" s="2" t="s">
+      <c r="O14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-CVI.xlsx
+++ b/Excel-XLSX/UN-CVI.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>diS51V</t>
+    <t>4N5ibR</t>
   </si>
   <si>
     <t>1999</t>
@@ -747,8 +747,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -815,8 +815,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -883,8 +883,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -951,8 +951,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1019,8 +1019,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1087,8 +1087,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1155,8 +1155,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1223,8 +1223,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1291,8 +1291,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1359,8 +1359,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1563,8 +1563,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-CVI.xlsx
+++ b/Excel-XLSX/UN-CVI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,6 +90,45 @@
     <t>4N5ibR</t>
   </si>
   <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>CVI</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1999</t>
   </si>
   <si>
@@ -102,28 +141,10 @@
     <t>GNB</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>CVI</t>
-  </si>
-  <si>
-    <t>CPV</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>456</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>2000</t>
@@ -132,7 +153,7 @@
     <t>73</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>2014</t>
@@ -153,76 +174,61 @@
     <t>115</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -607,7 +613,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -709,46 +715,46 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -762,61 +768,61 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -830,61 +836,61 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -904,55 +910,55 @@
         <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -966,61 +972,61 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1034,61 +1040,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1102,61 +1108,61 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="T8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1170,61 +1176,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1238,61 +1244,61 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1306,61 +1312,61 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1374,61 +1380,61 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1442,61 +1448,61 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1510,61 +1516,129 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>32</v>
+      <c r="N15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-CVI.xlsx
+++ b/Excel-XLSX/UN-CVI.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>4N5ibR</t>
+    <t>ge89Qh</t>
   </si>
   <si>
     <t>1991</t>
